--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1401543.30934291</v>
+        <v>-1403493.535171471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>781564.2349511029</v>
+        <v>153635.6742269323</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>156.7902169663054</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>135.7738874954551</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>112.6602310762604</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.0755012823421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>68.08390849687548</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.59157052989633</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>355.8867205769042</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>17.90830364449931</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.82579829756118</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>77.72878559814586</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50.79441904558979</v>
+        <v>54.24977711652327</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>126.9368849988965</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>47.14167849255917</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.88658712315873</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.995544662308</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.68706854817731</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.797245289947409</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.3839085739092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>116.0273632953968</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.8691087411206</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>44.76059872677048</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>65.98416773390311</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898732</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.7845930127239</v>
+        <v>612.0285950116395</v>
       </c>
       <c r="C2" t="n">
-        <v>583.8220760723123</v>
+        <v>612.0285950116395</v>
       </c>
       <c r="D2" t="n">
-        <v>583.8220760723123</v>
+        <v>612.0285950116395</v>
       </c>
       <c r="E2" t="n">
-        <v>198.033823474068</v>
+        <v>226.2403424133952</v>
       </c>
       <c r="F2" t="n">
-        <v>191.0883227248646</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>191.0883227248646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2528.322188340372</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2309.687521312434</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2055.925735950526</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1724.862848606955</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1372.094193336841</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>998.6284350757612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1339.384433076846</v>
+        <v>998.6284350757612</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.7314582348853</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C4" t="n">
-        <v>530.7314582348853</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7314582348853</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>122.7146065646831</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>712.379923065125</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>712.379923065125</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>712.379923065125</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.379923065125</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>2072.529454785695</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1362.14067848328</v>
+        <v>1330.553052060998</v>
       </c>
       <c r="C8" t="n">
-        <v>1362.14067848328</v>
+        <v>961.5905351205863</v>
       </c>
       <c r="D8" t="n">
-        <v>1003.874979876529</v>
+        <v>603.3248365138359</v>
       </c>
       <c r="E8" t="n">
-        <v>1003.874979876529</v>
+        <v>603.3248365138359</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,7 +4799,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1362.14067848328</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="X10" t="n">
-        <v>680.5111271432434</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5111271432434</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,22 +5124,22 @@
         <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.128242957076</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.648898594694</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O12" t="n">
-        <v>1916.402312678656</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.702934414403</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.390024399142</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="C13" t="n">
-        <v>434.390024399142</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="D13" t="n">
-        <v>434.390024399142</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>217.4146113212031</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5212,37 +5212,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273991</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="X13" t="n">
-        <v>616.0384892293818</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="Y13" t="n">
-        <v>616.0384892293818</v>
+        <v>385.5899330013825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>592.8217113586345</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>270.0269952192058</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>883.9240649760945</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>1204.259384505796</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.780040143414</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662453</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1497.100871275127</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1297.180861190679</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1073.395445980185</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1073.395445980185</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570627</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.6878657662453</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>511.8732695736287</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>758.6383974800929</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1527.006543872554</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>2331.418122136705</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.9727323706985</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="C22" t="n">
-        <v>653.9727323706985</v>
+        <v>214.416448324323</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9727323706985</v>
+        <v>214.416448324323</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1198.074390613546</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1198.074390613546</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1198.074390613546</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>943.3899024076591</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>653.9727323706985</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X22" t="n">
-        <v>653.9727323706985</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.9727323706985</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,13 +6023,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>2030.299435654558</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>310.6051391271021</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C25" t="n">
-        <v>310.6051391271021</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D25" t="n">
-        <v>310.6051391271021</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E25" t="n">
-        <v>310.6051391271021</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>310.6051391271021</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>142.4298174469227</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>142.4298174469227</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706323</v>
+        <v>577.4573555642615</v>
       </c>
       <c r="X25" t="n">
-        <v>531.3977182706323</v>
+        <v>577.4573555642615</v>
       </c>
       <c r="Y25" t="n">
-        <v>310.6051391271021</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6215,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,40 +6449,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>309.4092125432344</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>539.3723184115836</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171746</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>1479.482307609636</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.893885873787</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O33" t="n">
-        <v>2317.834075963124</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>105.2454899083875</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171746</v>
+        <v>719.1425596652762</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,13 +7078,13 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,22 +7093,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7151,16 +7151,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>323.6581146605665</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6581146605665</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605665</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924717</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126482</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605665</v>
+        <v>887.0301175853477</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924717</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>160.0174871669323</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>570.9077560114449</v>
       </c>
       <c r="L45" t="n">
-        <v>263.5382936126482</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605665</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924717</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>182.0340742867944</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>472.2011513697167</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>100.2679714736571</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>171.9756196175336</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.1757005204057</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7834460210478</v>
       </c>
       <c r="O33" t="n">
-        <v>176.8792647367042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>145.9509323562798</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>198.5685309419533</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>202.8611258896126</v>
+        <v>292.598328277776</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>202.8611258896126</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>250.085828775406</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.1624373737115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>124.5473755234104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>29.91828370522808</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>160.14491163376</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>108.1671071138454</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.20074477818559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30.40659935117239</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05170124248269</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>65.65864673750148</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>220.5388306026879</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770927</v>
+        <v>96832.5780377093</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,19 +26320,19 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
+        <v>97757.26493442721</v>
+      </c>
+      <c r="F2" t="n">
         <v>97757.26493442724</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>97757.26493442719</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97757.26493442722</v>
+      </c>
+      <c r="I2" t="n">
         <v>97757.26493442721</v>
-      </c>
-      <c r="G2" t="n">
-        <v>97757.26493442726</v>
-      </c>
-      <c r="H2" t="n">
-        <v>97757.26493442724</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97757.26493442724</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330356</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112586.3083663467</v>
+        <v>112586.3083663466</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905759103</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758411</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758063</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189627</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688580.6876065914</v>
+        <v>-688696.6404704979</v>
       </c>
       <c r="C6" t="n">
         <v>-119287.9960109931</v>
       </c>
       <c r="D6" t="n">
-        <v>-119287.9960109931</v>
+        <v>-119287.9960109932</v>
       </c>
       <c r="E6" t="n">
-        <v>-520177.8911817613</v>
+        <v>-520275.3503077335</v>
       </c>
       <c r="F6" t="n">
-        <v>4982.145295134702</v>
+        <v>4884.686169162537</v>
       </c>
       <c r="G6" t="n">
-        <v>4982.145295134746</v>
+        <v>4884.686169162538</v>
       </c>
       <c r="H6" t="n">
-        <v>4982.145295134746</v>
+        <v>4884.686169162552</v>
       </c>
       <c r="I6" t="n">
-        <v>4982.145295134775</v>
+        <v>4884.686169162524</v>
       </c>
       <c r="J6" t="n">
-        <v>-249220.1968151916</v>
+        <v>-249220.1968151917</v>
       </c>
       <c r="K6" t="n">
-        <v>-18291.46551888605</v>
+        <v>-18291.46551888615</v>
       </c>
       <c r="L6" t="n">
-        <v>-18291.46551888618</v>
+        <v>-18291.46551888614</v>
       </c>
       <c r="M6" t="n">
         <v>-153092.4807527233</v>
@@ -26558,10 +26558,10 @@
         <v>-18291.46551888618</v>
       </c>
       <c r="O6" t="n">
-        <v>-72796.97762259864</v>
+        <v>-72796.97762259867</v>
       </c>
       <c r="P6" t="n">
-        <v>-18291.46551888615</v>
+        <v>-18291.46551888618</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>188.1488852689021</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>61.75548173271106</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>66.88171329546275</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>236.5460727939317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>13.84438010156481</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>368.3296350115543</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.0061818843761</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>208.5530886438319</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>356.0816266961216</v>
+        <v>352.6262686251882</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>125.2007583249315</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>178.567976896478</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31130,7 +31130,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31604,7 +31604,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31844,25 +31844,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>70.77739093025042</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.6626388367732</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>20.08736789078296</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,25 +32303,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>47.93166030412374</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32330,19 +32330,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>425.8974584957645</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>361.0752069380429</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33020,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>351.8516207003248</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,40 +33175,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,22 +33257,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33284,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,7 +33494,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33503,13 +33503,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,7 +33731,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33740,25 +33740,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>351.851620700325</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,13 +34205,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,16 +34220,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,13 +34442,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>64.18133446428453</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,16 +34457,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35492,25 +35492,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>418.7780531904706</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.7581524866008</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206019</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.6095128747336</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>271.353442723068</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>174.5554583423433</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>340.8594392863835</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>250.8434100615964</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>29.37937517308915</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>749.4684883237461</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>709.0758691982631</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>699.852282960545</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>46.33426154604671</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>284.4417339377145</v>
       </c>
       <c r="O33" t="n">
-        <v>34.28302029225979</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>8.109493381920863</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60.72709196759426</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>584.13758622391</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>60.72709196759426</v>
+        <v>150.4642943557576</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>63.43474313802668</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>60.72709196759426</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
